--- a/users/informes_seller/izas/envios amazon/envios amazonhistorico.xlsx
+++ b/users/informes_seller/izas/envios amazon/envios amazonhistorico.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW263"/>
+  <dimension ref="A1:AW283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16549,7 +16549,7 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -16710,7 +16710,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -16871,7 +16871,7 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -17515,7 +17515,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -17676,7 +17676,7 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -17837,7 +17837,7 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -17998,7 +17998,7 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -18159,7 +18159,7 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -18320,7 +18320,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -18642,7 +18642,7 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -18803,7 +18803,7 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -18964,7 +18964,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -19125,7 +19125,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -19286,7 +19286,7 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -19447,7 +19447,7 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -19608,7 +19608,7 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -19769,7 +19769,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -19930,7 +19930,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -20252,7 +20252,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -20574,7 +20574,7 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -20735,7 +20735,7 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -20896,7 +20896,7 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -21057,7 +21057,7 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -21379,7 +21379,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -21540,7 +21540,7 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -21701,7 +21701,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -21862,7 +21862,7 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -22023,7 +22023,7 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -22184,7 +22184,7 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -22345,7 +22345,7 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -22506,7 +22506,7 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -22828,7 +22828,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -22989,7 +22989,7 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -23150,7 +23150,7 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -23311,7 +23311,7 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -23472,7 +23472,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
@@ -23794,7 +23794,7 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
@@ -23955,7 +23955,7 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -24116,7 +24116,7 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
@@ -24277,7 +24277,7 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
@@ -24438,7 +24438,7 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
@@ -24599,7 +24599,7 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
@@ -24921,7 +24921,7 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
@@ -25082,7 +25082,7 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
@@ -25243,7 +25243,7 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
@@ -25404,7 +25404,7 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
@@ -25565,7 +25565,7 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
@@ -25726,7 +25726,7 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
@@ -25887,7 +25887,7 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -26048,7 +26048,7 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
@@ -26209,7 +26209,7 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
@@ -26531,7 +26531,7 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
@@ -26692,7 +26692,7 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
@@ -26853,7 +26853,7 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
@@ -27014,7 +27014,7 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
@@ -27175,7 +27175,7 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
@@ -27336,7 +27336,7 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
@@ -27497,7 +27497,7 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
@@ -27658,7 +27658,7 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
@@ -27819,7 +27819,7 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
@@ -28141,7 +28141,7 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
@@ -28302,7 +28302,7 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
@@ -28463,7 +28463,7 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
@@ -28624,7 +28624,7 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
@@ -28785,7 +28785,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
@@ -29107,7 +29107,7 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
@@ -29268,7 +29268,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
@@ -29429,7 +29429,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
@@ -29590,7 +29590,7 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
@@ -29751,7 +29751,7 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
@@ -29912,7 +29912,7 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -30073,7 +30073,7 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
@@ -30234,7 +30234,7 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
@@ -30395,7 +30395,7 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
@@ -30556,7 +30556,7 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
@@ -30717,7 +30717,7 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -30878,7 +30878,7 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
@@ -31039,7 +31039,7 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
@@ -31200,7 +31200,7 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
@@ -31522,7 +31522,7 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
@@ -31683,7 +31683,7 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
@@ -31844,7 +31844,7 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
@@ -32005,7 +32005,7 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
@@ -32166,7 +32166,7 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
@@ -32327,7 +32327,7 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
@@ -32488,7 +32488,7 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
@@ -32649,7 +32649,7 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
@@ -32810,7 +32810,7 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
@@ -32971,7 +32971,7 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
@@ -33132,7 +33132,7 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
@@ -33293,7 +33293,7 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
@@ -33454,7 +33454,7 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
@@ -33615,7 +33615,7 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
@@ -33776,7 +33776,7 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
@@ -33937,7 +33937,7 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -34098,7 +34098,7 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
@@ -34259,7 +34259,7 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
@@ -34420,7 +34420,7 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
@@ -34581,7 +34581,7 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -34742,7 +34742,7 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -34903,7 +34903,7 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -35064,7 +35064,7 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -35225,7 +35225,7 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -35386,7 +35386,7 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
@@ -35547,7 +35547,7 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
@@ -35708,7 +35708,7 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -35869,7 +35869,7 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -36030,7 +36030,7 @@
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
@@ -36191,7 +36191,7 @@
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
@@ -36352,7 +36352,7 @@
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -36513,7 +36513,7 @@
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -36674,7 +36674,7 @@
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
@@ -36835,7 +36835,7 @@
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
@@ -36996,7 +36996,7 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
@@ -37157,7 +37157,7 @@
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
@@ -37318,7 +37318,7 @@
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
@@ -37479,7 +37479,7 @@
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -37640,7 +37640,7 @@
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -37801,7 +37801,7 @@
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
@@ -37962,7 +37962,7 @@
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
@@ -38123,7 +38123,7 @@
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -38284,7 +38284,7 @@
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -38445,7 +38445,7 @@
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -38606,7 +38606,7 @@
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
@@ -38767,7 +38767,7 @@
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
@@ -38928,7 +38928,7 @@
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
@@ -39089,7 +39089,7 @@
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
@@ -39250,7 +39250,7 @@
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
@@ -39411,7 +39411,7 @@
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
@@ -39572,7 +39572,7 @@
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
@@ -39733,7 +39733,7 @@
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
@@ -39894,7 +39894,7 @@
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
@@ -40055,7 +40055,7 @@
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
@@ -40216,7 +40216,7 @@
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
@@ -40377,7 +40377,7 @@
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
@@ -40538,7 +40538,7 @@
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
@@ -40699,7 +40699,7 @@
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -40860,7 +40860,7 @@
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
@@ -41021,7 +41021,7 @@
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
@@ -41182,7 +41182,7 @@
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
@@ -41343,7 +41343,7 @@
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
@@ -41504,7 +41504,7 @@
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
@@ -41665,7 +41665,7 @@
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
@@ -41826,7 +41826,7 @@
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
@@ -41987,7 +41987,7 @@
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
@@ -42148,7 +42148,7 @@
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
@@ -42309,7 +42309,7 @@
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
@@ -42470,7 +42470,7 @@
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
@@ -42631,7 +42631,7 @@
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
@@ -42790,6 +42790,3626 @@
         </is>
       </c>
     </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>405-6498908-8998713</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr"/>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>DXlydvRT7</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Dv9GC0hpR</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>53559134862403</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>2020-08-12T08:48:37+00:00</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>2020-08-13T01:48:53+00:00</t>
+        </is>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>2020-08-13T01:48:53+00:00</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>2020-08-13T04:48:59+00:00</t>
+        </is>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>qbfmk7rmxqxlhjx@marketplace.amazon.it</t>
+        </is>
+      </c>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="inlineStr"/>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>IWFFO01051BM41 AMZ</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>Izas Tena - sandali da donna Size: 41 EU</t>
+        </is>
+      </c>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V264" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W264" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X264" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y264" t="inlineStr">
+        <is>
+          <t>Expedited</t>
+        </is>
+      </c>
+      <c r="Z264" t="inlineStr"/>
+      <c r="AA264" t="inlineStr"/>
+      <c r="AB264" t="inlineStr"/>
+      <c r="AC264" t="inlineStr"/>
+      <c r="AD264" t="inlineStr">
+        <is>
+          <t>Rovetta</t>
+        </is>
+      </c>
+      <c r="AE264" t="inlineStr">
+        <is>
+          <t>Bergamo</t>
+        </is>
+      </c>
+      <c r="AF264" t="inlineStr">
+        <is>
+          <t>24020</t>
+        </is>
+      </c>
+      <c r="AG264" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="AH264" t="inlineStr"/>
+      <c r="AI264" t="inlineStr"/>
+      <c r="AJ264" t="inlineStr"/>
+      <c r="AK264" t="inlineStr"/>
+      <c r="AL264" t="inlineStr"/>
+      <c r="AM264" t="inlineStr"/>
+      <c r="AN264" t="inlineStr"/>
+      <c r="AO264" t="inlineStr"/>
+      <c r="AP264" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ264" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AR264" t="inlineStr">
+        <is>
+          <t>POSTE_ITALIANE</t>
+        </is>
+      </c>
+      <c r="AS264" t="inlineStr">
+        <is>
+          <t>F218C83500904</t>
+        </is>
+      </c>
+      <c r="AT264" t="inlineStr">
+        <is>
+          <t>2020-08-18T18:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="AU264" t="inlineStr">
+        <is>
+          <t>MAD4</t>
+        </is>
+      </c>
+      <c r="AV264" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="AW264" t="inlineStr">
+        <is>
+          <t>Amazon.it</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>402-8523471-2144311</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr"/>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>DGdh3YpbQ</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Dt9bCnhlR</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>11442206917827</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>2020-08-11T19:35:56+00:00</t>
+        </is>
+      </c>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>2020-08-13T01:48:36+00:00</t>
+        </is>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>2020-08-13T01:48:36+00:00</t>
+        </is>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>2020-08-13T04:48:42+00:00</t>
+        </is>
+      </c>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>sp77w3fsf5zbyhw@marketplace.amazon.it</t>
+        </is>
+      </c>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="inlineStr"/>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>IWFFO01051WH39 AMZ</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>Izas Tena - sandali da donna Bianco Size: 39 EU</t>
+        </is>
+      </c>
+      <c r="Q265" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="T265" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V265" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W265" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X265" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y265" t="inlineStr">
+        <is>
+          <t>Expedited</t>
+        </is>
+      </c>
+      <c r="Z265" t="inlineStr"/>
+      <c r="AA265" t="inlineStr"/>
+      <c r="AB265" t="inlineStr"/>
+      <c r="AC265" t="inlineStr"/>
+      <c r="AD265" t="inlineStr">
+        <is>
+          <t>Moncalieri</t>
+        </is>
+      </c>
+      <c r="AE265" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="AF265" t="inlineStr">
+        <is>
+          <t>10024</t>
+        </is>
+      </c>
+      <c r="AG265" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="AH265" t="inlineStr"/>
+      <c r="AI265" t="inlineStr"/>
+      <c r="AJ265" t="inlineStr"/>
+      <c r="AK265" t="inlineStr"/>
+      <c r="AL265" t="inlineStr"/>
+      <c r="AM265" t="inlineStr"/>
+      <c r="AN265" t="inlineStr"/>
+      <c r="AO265" t="inlineStr"/>
+      <c r="AP265" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ265" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AR265" t="inlineStr">
+        <is>
+          <t>AMZN_IT</t>
+        </is>
+      </c>
+      <c r="AS265" t="inlineStr">
+        <is>
+          <t>BA0151751719</t>
+        </is>
+      </c>
+      <c r="AT265" t="inlineStr">
+        <is>
+          <t>2020-08-14T18:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="AU265" t="inlineStr">
+        <is>
+          <t>MAD4</t>
+        </is>
+      </c>
+      <c r="AV265" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="AW265" t="inlineStr">
+        <is>
+          <t>Amazon.it</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>171-1609983-0917945</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr"/>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>DXKckpbVM</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>DvWmCNhdR</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>52535725377931</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>2020-08-12T14:43:30+00:00</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>2020-08-13T01:48:31+00:00</t>
+        </is>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>2020-08-13T01:48:31+00:00</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>2020-08-13T04:48:42+00:00</t>
+        </is>
+      </c>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>lwfwjs9ln8jy20x@marketplace.amazon.es</t>
+        </is>
+      </c>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="inlineStr"/>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>IWFSD01412BM/CF40 AMZ</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>Izas Outdoor Leeds, Sandalias Deportivas para Mujer, Bluemoon Coral Fluor</t>
+        </is>
+      </c>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="T266" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V266" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W266" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X266" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y266" t="inlineStr">
+        <is>
+          <t>Expedited</t>
+        </is>
+      </c>
+      <c r="Z266" t="inlineStr"/>
+      <c r="AA266" t="inlineStr"/>
+      <c r="AB266" t="inlineStr"/>
+      <c r="AC266" t="inlineStr"/>
+      <c r="AD266" t="inlineStr">
+        <is>
+          <t>madrid</t>
+        </is>
+      </c>
+      <c r="AE266" t="inlineStr">
+        <is>
+          <t>Madrid</t>
+        </is>
+      </c>
+      <c r="AF266" t="inlineStr">
+        <is>
+          <t>28034</t>
+        </is>
+      </c>
+      <c r="AG266" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="AH266" t="inlineStr"/>
+      <c r="AI266" t="inlineStr"/>
+      <c r="AJ266" t="inlineStr"/>
+      <c r="AK266" t="inlineStr"/>
+      <c r="AL266" t="inlineStr"/>
+      <c r="AM266" t="inlineStr"/>
+      <c r="AN266" t="inlineStr"/>
+      <c r="AO266" t="inlineStr"/>
+      <c r="AP266" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ266" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AR266" t="inlineStr">
+        <is>
+          <t>AMZN_ES</t>
+        </is>
+      </c>
+      <c r="AS266" t="inlineStr">
+        <is>
+          <t>EA0090730634</t>
+        </is>
+      </c>
+      <c r="AT266" t="inlineStr">
+        <is>
+          <t>2020-08-13T18:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="AU266" t="inlineStr">
+        <is>
+          <t>MAD4</t>
+        </is>
+      </c>
+      <c r="AV266" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="AW266" t="inlineStr">
+        <is>
+          <t>Amazon.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>408-9464876-1537134</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>DNPFstJdL</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>DvQnC2hrR</t>
+        </is>
+      </c>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>13386822038651</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>2020-08-12T14:18:57+00:00</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>2020-08-13T01:30:08+00:00</t>
+        </is>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>2020-08-13T01:30:08+00:00</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>2020-08-13T04:30:14+00:00</t>
+        </is>
+      </c>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>c10x6c96s96lbqb@marketplace.amazon.es</t>
+        </is>
+      </c>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="inlineStr"/>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>IWFFO01051BM38 AMZ</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>Izas Tena Sandalia, Mujer (Azul Noche, Numeric_38)</t>
+        </is>
+      </c>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="T267" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V267" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W267" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X267" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y267" t="inlineStr">
+        <is>
+          <t>Expedited</t>
+        </is>
+      </c>
+      <c r="Z267" t="inlineStr"/>
+      <c r="AA267" t="inlineStr"/>
+      <c r="AB267" t="inlineStr"/>
+      <c r="AC267" t="inlineStr"/>
+      <c r="AD267" t="inlineStr">
+        <is>
+          <t>Montmel\xc3\xb3</t>
+        </is>
+      </c>
+      <c r="AE267" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="AF267" t="inlineStr">
+        <is>
+          <t>08160</t>
+        </is>
+      </c>
+      <c r="AG267" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="AH267" t="inlineStr"/>
+      <c r="AI267" t="inlineStr"/>
+      <c r="AJ267" t="inlineStr"/>
+      <c r="AK267" t="inlineStr"/>
+      <c r="AL267" t="inlineStr"/>
+      <c r="AM267" t="inlineStr"/>
+      <c r="AN267" t="inlineStr"/>
+      <c r="AO267" t="inlineStr"/>
+      <c r="AP267" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ267" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AR267" t="inlineStr">
+        <is>
+          <t>AMZN_ES</t>
+        </is>
+      </c>
+      <c r="AS267" t="inlineStr">
+        <is>
+          <t>EC0004202143</t>
+        </is>
+      </c>
+      <c r="AT267" t="inlineStr">
+        <is>
+          <t>2020-08-13T18:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="AU267" t="inlineStr">
+        <is>
+          <t>MAD4</t>
+        </is>
+      </c>
+      <c r="AV267" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="AW267" t="inlineStr">
+        <is>
+          <t>Amazon.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>403-4114003-4578720</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr"/>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>DcQx6pR77</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>DhQ7CThkR</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>36854013571723</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>2020-08-12T14:46:27+00:00</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr">
+        <is>
+          <t>2020-08-13T01:28:29+00:00</t>
+        </is>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>2020-08-13T01:28:29+00:00</t>
+        </is>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>2020-08-13T04:28:34+00:00</t>
+        </is>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>4vgq0246srdhcfg@marketplace.amazon.es</t>
+        </is>
+      </c>
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="inlineStr"/>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>IWFFO01051BK39 AMZ</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>Izas Sandalia Tena</t>
+        </is>
+      </c>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V268" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W268" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X268" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y268" t="inlineStr">
+        <is>
+          <t>Expedited</t>
+        </is>
+      </c>
+      <c r="Z268" t="inlineStr"/>
+      <c r="AA268" t="inlineStr"/>
+      <c r="AB268" t="inlineStr"/>
+      <c r="AC268" t="inlineStr"/>
+      <c r="AD268" t="inlineStr">
+        <is>
+          <t>Parets del Vall\xc3\xa8s</t>
+        </is>
+      </c>
+      <c r="AE268" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="AF268" t="inlineStr">
+        <is>
+          <t>08150</t>
+        </is>
+      </c>
+      <c r="AG268" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="AH268" t="inlineStr"/>
+      <c r="AI268" t="inlineStr"/>
+      <c r="AJ268" t="inlineStr"/>
+      <c r="AK268" t="inlineStr"/>
+      <c r="AL268" t="inlineStr"/>
+      <c r="AM268" t="inlineStr"/>
+      <c r="AN268" t="inlineStr"/>
+      <c r="AO268" t="inlineStr"/>
+      <c r="AP268" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ268" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AR268" t="inlineStr">
+        <is>
+          <t>AMZN_ES</t>
+        </is>
+      </c>
+      <c r="AS268" t="inlineStr">
+        <is>
+          <t>EC0004202246</t>
+        </is>
+      </c>
+      <c r="AT268" t="inlineStr">
+        <is>
+          <t>2020-08-13T18:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="AU268" t="inlineStr">
+        <is>
+          <t>MAD4</t>
+        </is>
+      </c>
+      <c r="AV268" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="AW268" t="inlineStr">
+        <is>
+          <t>Amazon.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>405-0407316-9161921</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr"/>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>D10rxCNtr</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>DHQMCSh9R</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>30045742490795</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>2020-08-12T15:10:27+00:00</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>2020-08-13T01:28:26+00:00</t>
+        </is>
+      </c>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>2020-08-13T01:28:26+00:00</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>2020-08-13T04:28:31+00:00</t>
+        </is>
+      </c>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>9f2l6tkhsnbt5ft@marketplace.amazon.es</t>
+        </is>
+      </c>
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="inlineStr"/>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>IWFFO01049FX39 AMZ</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>Izas Sandalia Pineta</t>
+        </is>
+      </c>
+      <c r="Q269" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="T269" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V269" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W269" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X269" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y269" t="inlineStr">
+        <is>
+          <t>Expedited</t>
+        </is>
+      </c>
+      <c r="Z269" t="inlineStr"/>
+      <c r="AA269" t="inlineStr"/>
+      <c r="AB269" t="inlineStr"/>
+      <c r="AC269" t="inlineStr"/>
+      <c r="AD269" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="AE269" t="inlineStr">
+        <is>
+          <t>BCN</t>
+        </is>
+      </c>
+      <c r="AF269" t="inlineStr">
+        <is>
+          <t>08027</t>
+        </is>
+      </c>
+      <c r="AG269" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="AH269" t="inlineStr"/>
+      <c r="AI269" t="inlineStr"/>
+      <c r="AJ269" t="inlineStr"/>
+      <c r="AK269" t="inlineStr"/>
+      <c r="AL269" t="inlineStr"/>
+      <c r="AM269" t="inlineStr"/>
+      <c r="AN269" t="inlineStr"/>
+      <c r="AO269" t="inlineStr"/>
+      <c r="AP269" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ269" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AR269" t="inlineStr">
+        <is>
+          <t>AMZN_ES</t>
+        </is>
+      </c>
+      <c r="AS269" t="inlineStr">
+        <is>
+          <t>EC0004202923</t>
+        </is>
+      </c>
+      <c r="AT269" t="inlineStr">
+        <is>
+          <t>2020-08-13T18:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="AU269" t="inlineStr">
+        <is>
+          <t>MAD4</t>
+        </is>
+      </c>
+      <c r="AV269" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="AW269" t="inlineStr">
+        <is>
+          <t>Amazon.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>171-1105133-4614740</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr"/>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>D3QgJcNzr</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Dt6gCShLR</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>55545396871259</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>2020-08-12T08:56:54+00:00</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>2020-08-13T00:58:07+00:00</t>
+        </is>
+      </c>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>2020-08-13T00:58:07+00:00</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>2020-08-13T03:58:13+00:00</t>
+        </is>
+      </c>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>nrzltvbw2z4syxj@marketplace.amazon.es</t>
+        </is>
+      </c>
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="inlineStr"/>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>IWFFO01051BM37 AMZ</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>Izas Tena Sandalia, Mujer (Azul Noche, Numeric_37)</t>
+        </is>
+      </c>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="T270" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V270" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W270" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X270" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y270" t="inlineStr">
+        <is>
+          <t>Expedited</t>
+        </is>
+      </c>
+      <c r="Z270" t="inlineStr"/>
+      <c r="AA270" t="inlineStr"/>
+      <c r="AB270" t="inlineStr"/>
+      <c r="AC270" t="inlineStr"/>
+      <c r="AD270" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="AE270" t="inlineStr">
+        <is>
+          <t>Castilla y Le\xc3\xb3n</t>
+        </is>
+      </c>
+      <c r="AF270" t="inlineStr">
+        <is>
+          <t>47012</t>
+        </is>
+      </c>
+      <c r="AG270" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="AH270" t="inlineStr"/>
+      <c r="AI270" t="inlineStr"/>
+      <c r="AJ270" t="inlineStr"/>
+      <c r="AK270" t="inlineStr"/>
+      <c r="AL270" t="inlineStr"/>
+      <c r="AM270" t="inlineStr"/>
+      <c r="AN270" t="inlineStr"/>
+      <c r="AO270" t="inlineStr"/>
+      <c r="AP270" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ270" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AR270" t="inlineStr">
+        <is>
+          <t>AMZN_ES</t>
+        </is>
+      </c>
+      <c r="AS270" t="inlineStr">
+        <is>
+          <t>EA0090734537</t>
+        </is>
+      </c>
+      <c r="AT270" t="inlineStr">
+        <is>
+          <t>2020-08-13T18:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="AU270" t="inlineStr">
+        <is>
+          <t>MAD4</t>
+        </is>
+      </c>
+      <c r="AV270" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="AW270" t="inlineStr">
+        <is>
+          <t>Amazon.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>304-8443547-1729952</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>DCNPxxpVQ</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>D7hqCqh8R</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>16083181481371</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>2020-08-12T14:01:27+00:00</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr">
+        <is>
+          <t>2020-08-13T00:52:50+00:00</t>
+        </is>
+      </c>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>2020-08-13T00:52:50+00:00</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>2020-08-13T03:52:57+00:00</t>
+        </is>
+      </c>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>sftyhy7c185mljg@marketplace.amazon.de</t>
+        </is>
+      </c>
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="inlineStr"/>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>IWFFO01051TQ40 AMZ1</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>IZAS Damen Sandalen</t>
+        </is>
+      </c>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+      <c r="T271" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V271" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W271" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X271" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y271" t="inlineStr">
+        <is>
+          <t>Expedited</t>
+        </is>
+      </c>
+      <c r="Z271" t="inlineStr"/>
+      <c r="AA271" t="inlineStr"/>
+      <c r="AB271" t="inlineStr"/>
+      <c r="AC271" t="inlineStr"/>
+      <c r="AD271" t="inlineStr">
+        <is>
+          <t>Trier</t>
+        </is>
+      </c>
+      <c r="AE271" t="inlineStr">
+        <is>
+          <t>Rheinland-Pfalz</t>
+        </is>
+      </c>
+      <c r="AF271" t="inlineStr">
+        <is>
+          <t>54290</t>
+        </is>
+      </c>
+      <c r="AG271" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="AH271" t="inlineStr"/>
+      <c r="AI271" t="inlineStr"/>
+      <c r="AJ271" t="inlineStr"/>
+      <c r="AK271" t="inlineStr"/>
+      <c r="AL271" t="inlineStr"/>
+      <c r="AM271" t="inlineStr"/>
+      <c r="AN271" t="inlineStr"/>
+      <c r="AO271" t="inlineStr"/>
+      <c r="AP271" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ271" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AR271" t="inlineStr">
+        <is>
+          <t>HERMES</t>
+        </is>
+      </c>
+      <c r="AS271" t="inlineStr">
+        <is>
+          <t>H1020320017951602043</t>
+        </is>
+      </c>
+      <c r="AT271" t="inlineStr">
+        <is>
+          <t>2020-08-15T18:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="AU271" t="inlineStr">
+        <is>
+          <t>MAD4</t>
+        </is>
+      </c>
+      <c r="AV271" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="AW271" t="inlineStr">
+        <is>
+          <t>Amazon.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>403-8527274-8755510</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr"/>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>DVJw3HpwQ</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>DqTVCGhfR</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>48080800166019</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>2020-08-11T19:02:36+00:00</t>
+        </is>
+      </c>
+      <c r="I272" t="inlineStr">
+        <is>
+          <t>2020-08-13T00:09:08+00:00</t>
+        </is>
+      </c>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>2020-08-13T00:09:08+00:00</t>
+        </is>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>2020-08-13T03:20:41+00:00</t>
+        </is>
+      </c>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>zpw3dvv5gc1xz7t@marketplace.amazon.es</t>
+        </is>
+      </c>
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="inlineStr"/>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>IWRRN00813BK/FXXXL AMZ</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>Izas Frisia Pantalones Cortos para Running, Mujer, Negro/Fuxia, 2XL</t>
+        </is>
+      </c>
+      <c r="Q272" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>19.99</t>
+        </is>
+      </c>
+      <c r="T272" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V272" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W272" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X272" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y272" t="inlineStr">
+        <is>
+          <t>Expedited</t>
+        </is>
+      </c>
+      <c r="Z272" t="inlineStr"/>
+      <c r="AA272" t="inlineStr"/>
+      <c r="AB272" t="inlineStr"/>
+      <c r="AC272" t="inlineStr"/>
+      <c r="AD272" t="inlineStr">
+        <is>
+          <t>VALDEMORO</t>
+        </is>
+      </c>
+      <c r="AE272" t="inlineStr">
+        <is>
+          <t>MADRID</t>
+        </is>
+      </c>
+      <c r="AF272" t="inlineStr">
+        <is>
+          <t>28341</t>
+        </is>
+      </c>
+      <c r="AG272" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="AH272" t="inlineStr"/>
+      <c r="AI272" t="inlineStr"/>
+      <c r="AJ272" t="inlineStr"/>
+      <c r="AK272" t="inlineStr"/>
+      <c r="AL272" t="inlineStr"/>
+      <c r="AM272" t="inlineStr"/>
+      <c r="AN272" t="inlineStr"/>
+      <c r="AO272" t="inlineStr"/>
+      <c r="AP272" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ272" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AR272" t="inlineStr">
+        <is>
+          <t>AMZN_ES</t>
+        </is>
+      </c>
+      <c r="AS272" t="inlineStr">
+        <is>
+          <t>EA0090495643</t>
+        </is>
+      </c>
+      <c r="AT272" t="inlineStr">
+        <is>
+          <t>2020-08-13T18:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="AU272" t="inlineStr">
+        <is>
+          <t>MAD4</t>
+        </is>
+      </c>
+      <c r="AV272" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="AW272" t="inlineStr">
+        <is>
+          <t>Amazon.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>405-0943533-2509901</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr"/>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>DgtBsGJtL</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>DkTFCJhSR</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>29459977815003</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>2020-08-09T18:36:24+00:00</t>
+        </is>
+      </c>
+      <c r="I273" t="inlineStr">
+        <is>
+          <t>2020-08-12T23:48:11+00:00</t>
+        </is>
+      </c>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>2020-08-12T23:58:50+00:00</t>
+        </is>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>2020-08-13T00:58:57+00:00</t>
+        </is>
+      </c>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>2zqfg51smqm2vyb@marketplace.amazon.it</t>
+        </is>
+      </c>
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="inlineStr"/>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>IWFFO01051WH37 AMZ</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>Izas Tena - sandali da donna Bianco Size: 37 EU</t>
+        </is>
+      </c>
+      <c r="Q273" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="T273" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V273" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W273" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X273" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y273" t="inlineStr">
+        <is>
+          <t>Expedited</t>
+        </is>
+      </c>
+      <c r="Z273" t="inlineStr"/>
+      <c r="AA273" t="inlineStr"/>
+      <c r="AB273" t="inlineStr"/>
+      <c r="AC273" t="inlineStr"/>
+      <c r="AD273" t="inlineStr">
+        <is>
+          <t>Bonate Sotto</t>
+        </is>
+      </c>
+      <c r="AE273" t="inlineStr">
+        <is>
+          <t>Bergamo</t>
+        </is>
+      </c>
+      <c r="AF273" t="inlineStr">
+        <is>
+          <t>24040</t>
+        </is>
+      </c>
+      <c r="AG273" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="AH273" t="inlineStr"/>
+      <c r="AI273" t="inlineStr"/>
+      <c r="AJ273" t="inlineStr"/>
+      <c r="AK273" t="inlineStr"/>
+      <c r="AL273" t="inlineStr"/>
+      <c r="AM273" t="inlineStr"/>
+      <c r="AN273" t="inlineStr"/>
+      <c r="AO273" t="inlineStr"/>
+      <c r="AP273" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ273" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AR273" t="inlineStr">
+        <is>
+          <t>AMZN_IT</t>
+        </is>
+      </c>
+      <c r="AS273" t="inlineStr">
+        <is>
+          <t>BA0151739523</t>
+        </is>
+      </c>
+      <c r="AT273" t="inlineStr">
+        <is>
+          <t>2020-08-14T18:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="AU273" t="inlineStr">
+        <is>
+          <t>MAD4</t>
+        </is>
+      </c>
+      <c r="AV273" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="AW273" t="inlineStr">
+        <is>
+          <t>Amazon.it</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>402-6819918-8597154</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr"/>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>D6B97GN7r</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>DqTGCYhQR</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>17717018826107</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>2020-08-11T19:43:17+00:00</t>
+        </is>
+      </c>
+      <c r="I274" t="inlineStr">
+        <is>
+          <t>2020-08-12T23:46:38+00:00</t>
+        </is>
+      </c>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>2020-08-12T23:46:38+00:00</t>
+        </is>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>2020-08-13T02:46:44+00:00</t>
+        </is>
+      </c>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>sp77w3fsf5zbyhw@marketplace.amazon.it</t>
+        </is>
+      </c>
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="inlineStr"/>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>IWFFO01051WB40 AMZ</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>IZAS Tena, Sandalo Sportivo Donna</t>
+        </is>
+      </c>
+      <c r="Q274" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="T274" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V274" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W274" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X274" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y274" t="inlineStr">
+        <is>
+          <t>Expedited</t>
+        </is>
+      </c>
+      <c r="Z274" t="inlineStr"/>
+      <c r="AA274" t="inlineStr"/>
+      <c r="AB274" t="inlineStr"/>
+      <c r="AC274" t="inlineStr"/>
+      <c r="AD274" t="inlineStr">
+        <is>
+          <t>Moncalieri</t>
+        </is>
+      </c>
+      <c r="AE274" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="AF274" t="inlineStr">
+        <is>
+          <t>10024</t>
+        </is>
+      </c>
+      <c r="AG274" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="AH274" t="inlineStr"/>
+      <c r="AI274" t="inlineStr"/>
+      <c r="AJ274" t="inlineStr"/>
+      <c r="AK274" t="inlineStr"/>
+      <c r="AL274" t="inlineStr"/>
+      <c r="AM274" t="inlineStr"/>
+      <c r="AN274" t="inlineStr"/>
+      <c r="AO274" t="inlineStr"/>
+      <c r="AP274" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ274" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AR274" t="inlineStr">
+        <is>
+          <t>AMZN_IT</t>
+        </is>
+      </c>
+      <c r="AS274" t="inlineStr">
+        <is>
+          <t>BA0151745080</t>
+        </is>
+      </c>
+      <c r="AT274" t="inlineStr">
+        <is>
+          <t>2020-08-14T18:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="AU274" t="inlineStr">
+        <is>
+          <t>MAD4</t>
+        </is>
+      </c>
+      <c r="AV274" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="AW274" t="inlineStr">
+        <is>
+          <t>Amazon.it</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>302-5916702-7362754</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr"/>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>DCkG1fNWr</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>DtHtCWhLR</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>61013483069659</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>2020-08-11T19:13:56+00:00</t>
+        </is>
+      </c>
+      <c r="I275" t="inlineStr">
+        <is>
+          <t>2020-08-12T23:00:57+00:00</t>
+        </is>
+      </c>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>2020-08-12T21:49:19+00:00</t>
+        </is>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>2020-08-12T23:49:25+00:00</t>
+        </is>
+      </c>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>8d09d6mjsy2wlk1@marketplace.amazon.de</t>
+        </is>
+      </c>
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="inlineStr"/>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>IWFFO01051WB39 AMZ</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>IZAS Wandern Sandale</t>
+        </is>
+      </c>
+      <c r="Q275" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+      <c r="T275" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="V275" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W275" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X275" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y275" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="Z275" t="inlineStr"/>
+      <c r="AA275" t="inlineStr"/>
+      <c r="AB275" t="inlineStr"/>
+      <c r="AC275" t="inlineStr"/>
+      <c r="AD275" t="inlineStr">
+        <is>
+          <t>Ludwigsburg</t>
+        </is>
+      </c>
+      <c r="AE275" t="inlineStr">
+        <is>
+          <t>Baden W\xc3\xbcrttemberg</t>
+        </is>
+      </c>
+      <c r="AF275" t="inlineStr">
+        <is>
+          <t>71638</t>
+        </is>
+      </c>
+      <c r="AG275" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="AH275" t="inlineStr"/>
+      <c r="AI275" t="inlineStr"/>
+      <c r="AJ275" t="inlineStr"/>
+      <c r="AK275" t="inlineStr"/>
+      <c r="AL275" t="inlineStr"/>
+      <c r="AM275" t="inlineStr"/>
+      <c r="AN275" t="inlineStr"/>
+      <c r="AO275" t="inlineStr"/>
+      <c r="AP275" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ275" t="inlineStr">
+        <is>
+          <t>-1.29</t>
+        </is>
+      </c>
+      <c r="AR275" t="inlineStr">
+        <is>
+          <t>DEPOST</t>
+        </is>
+      </c>
+      <c r="AS275" t="inlineStr">
+        <is>
+          <t>5248289781/9999/AW/65413</t>
+        </is>
+      </c>
+      <c r="AT275" t="inlineStr">
+        <is>
+          <t>2020-08-15T18:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="AU275" t="inlineStr">
+        <is>
+          <t>MAD4</t>
+        </is>
+      </c>
+      <c r="AV275" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="AW275" t="inlineStr">
+        <is>
+          <t>Amazon.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>408-6233698-0140360</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr"/>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>DGLJJMnQr</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>DxlcClhwR</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>26151082901091</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>2020-08-12T16:05:13+00:00</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr">
+        <is>
+          <t>2020-08-12T21:41:06+00:00</t>
+        </is>
+      </c>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>2020-08-12T21:41:06+00:00</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>2020-08-13T00:41:11+00:00</t>
+        </is>
+      </c>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>cmf34xy06z58bym@marketplace.amazon.es</t>
+        </is>
+      </c>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="inlineStr"/>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>IMFSD01409BM/BV40 AMZ</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>Sandalias Resistentes al Agua Tyne Izas (40 EU, Bluemoon/Blue River)</t>
+        </is>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="T276" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V276" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W276" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X276" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y276" t="inlineStr">
+        <is>
+          <t>Expedited</t>
+        </is>
+      </c>
+      <c r="Z276" t="inlineStr"/>
+      <c r="AA276" t="inlineStr"/>
+      <c r="AB276" t="inlineStr"/>
+      <c r="AC276" t="inlineStr"/>
+      <c r="AD276" t="inlineStr">
+        <is>
+          <t>ELX/ELCHE</t>
+        </is>
+      </c>
+      <c r="AE276" t="inlineStr">
+        <is>
+          <t>Alicante</t>
+        </is>
+      </c>
+      <c r="AF276" t="inlineStr">
+        <is>
+          <t>03201</t>
+        </is>
+      </c>
+      <c r="AG276" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="AH276" t="inlineStr"/>
+      <c r="AI276" t="inlineStr"/>
+      <c r="AJ276" t="inlineStr"/>
+      <c r="AK276" t="inlineStr"/>
+      <c r="AL276" t="inlineStr"/>
+      <c r="AM276" t="inlineStr"/>
+      <c r="AN276" t="inlineStr"/>
+      <c r="AO276" t="inlineStr"/>
+      <c r="AP276" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ276" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AR276" t="inlineStr">
+        <is>
+          <t>AMZN_ES</t>
+        </is>
+      </c>
+      <c r="AS276" t="inlineStr">
+        <is>
+          <t>EA0090721962</t>
+        </is>
+      </c>
+      <c r="AT276" t="inlineStr">
+        <is>
+          <t>2020-08-13T18:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="AU276" t="inlineStr">
+        <is>
+          <t>MAD4</t>
+        </is>
+      </c>
+      <c r="AV276" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="AW276" t="inlineStr">
+        <is>
+          <t>Amazon.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>408-6920123-9016343</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr"/>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>D3V2JsN3r</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>DvYnCvhTR</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>40524385208419</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>2020-08-12T12:15:23+00:00</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr">
+        <is>
+          <t>2020-08-12T22:20:20+00:00</t>
+        </is>
+      </c>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>2020-08-12T21:38:14+00:00</t>
+        </is>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>2020-08-12T22:38:20+00:00</t>
+        </is>
+      </c>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>7cmss1kxs4wqylm@marketplace.amazon.es</t>
+        </is>
+      </c>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="inlineStr"/>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>IWFFO01051BM37 AMZ</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>Izas Tena Sandalia, Mujer (Azul Noche, Numeric_37)</t>
+        </is>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="T277" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V277" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W277" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X277" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y277" t="inlineStr">
+        <is>
+          <t>Expedited</t>
+        </is>
+      </c>
+      <c r="Z277" t="inlineStr"/>
+      <c r="AA277" t="inlineStr"/>
+      <c r="AB277" t="inlineStr"/>
+      <c r="AC277" t="inlineStr"/>
+      <c r="AD277" t="inlineStr">
+        <is>
+          <t>BENICASSIM</t>
+        </is>
+      </c>
+      <c r="AE277" t="inlineStr">
+        <is>
+          <t>CASTELLON</t>
+        </is>
+      </c>
+      <c r="AF277" t="inlineStr">
+        <is>
+          <t>12560</t>
+        </is>
+      </c>
+      <c r="AG277" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="AH277" t="inlineStr"/>
+      <c r="AI277" t="inlineStr"/>
+      <c r="AJ277" t="inlineStr"/>
+      <c r="AK277" t="inlineStr"/>
+      <c r="AL277" t="inlineStr"/>
+      <c r="AM277" t="inlineStr"/>
+      <c r="AN277" t="inlineStr"/>
+      <c r="AO277" t="inlineStr"/>
+      <c r="AP277" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ277" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AR277" t="inlineStr">
+        <is>
+          <t>AMZN_ES</t>
+        </is>
+      </c>
+      <c r="AS277" t="inlineStr">
+        <is>
+          <t>EA0090696801</t>
+        </is>
+      </c>
+      <c r="AT277" t="inlineStr">
+        <is>
+          <t>2020-08-13T18:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="AU277" t="inlineStr">
+        <is>
+          <t>MAD4</t>
+        </is>
+      </c>
+      <c r="AV277" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="AW277" t="inlineStr">
+        <is>
+          <t>Amazon.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>302-9105738-3598767</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr"/>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>DJD3M5n5r</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>D4LKCPhnR</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>32930086580731</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>2020-08-12T13:14:08+00:00</t>
+        </is>
+      </c>
+      <c r="I278" t="inlineStr">
+        <is>
+          <t>2020-08-12T20:39:13+00:00</t>
+        </is>
+      </c>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>2020-08-12T20:39:13+00:00</t>
+        </is>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>2020-08-12T23:39:20+00:00</t>
+        </is>
+      </c>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>1bymhlgf3b0flth@marketplace.amazon.de</t>
+        </is>
+      </c>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="inlineStr"/>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>IWFFO01051BM38 AMZ</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>IZAS Wandern Sandale</t>
+        </is>
+      </c>
+      <c r="Q278" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="S278" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+      <c r="T278" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="V278" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W278" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X278" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y278" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="Z278" t="inlineStr"/>
+      <c r="AA278" t="inlineStr"/>
+      <c r="AB278" t="inlineStr"/>
+      <c r="AC278" t="inlineStr"/>
+      <c r="AD278" t="inlineStr">
+        <is>
+          <t>Schweinfurt</t>
+        </is>
+      </c>
+      <c r="AE278" t="inlineStr">
+        <is>
+          <t>Bayern</t>
+        </is>
+      </c>
+      <c r="AF278" t="inlineStr">
+        <is>
+          <t>97424</t>
+        </is>
+      </c>
+      <c r="AG278" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="AH278" t="inlineStr"/>
+      <c r="AI278" t="inlineStr"/>
+      <c r="AJ278" t="inlineStr"/>
+      <c r="AK278" t="inlineStr"/>
+      <c r="AL278" t="inlineStr"/>
+      <c r="AM278" t="inlineStr"/>
+      <c r="AN278" t="inlineStr"/>
+      <c r="AO278" t="inlineStr"/>
+      <c r="AP278" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ278" t="inlineStr">
+        <is>
+          <t>-3.89</t>
+        </is>
+      </c>
+      <c r="AR278" t="inlineStr">
+        <is>
+          <t>DP</t>
+        </is>
+      </c>
+      <c r="AS278" t="inlineStr">
+        <is>
+          <t>JJD000390011887117316</t>
+        </is>
+      </c>
+      <c r="AT278" t="inlineStr">
+        <is>
+          <t>2020-08-15T18:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="AU278" t="inlineStr">
+        <is>
+          <t>MAD4</t>
+        </is>
+      </c>
+      <c r="AV278" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="AW278" t="inlineStr">
+        <is>
+          <t>Amazon.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>306-8010088-7527526</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr"/>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>Dc3S7DNxr</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>D4LDCch3R</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>61489692075083</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>2020-08-11T18:57:00+00:00</t>
+        </is>
+      </c>
+      <c r="I279" t="inlineStr">
+        <is>
+          <t>2020-08-12T21:56:47+00:00</t>
+        </is>
+      </c>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>2020-08-12T20:38:46+00:00</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>2020-08-12T22:38:53+00:00</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>n8hg4bq9scm70jf@marketplace.amazon.de</t>
+        </is>
+      </c>
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="inlineStr"/>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>IWFFO01051WB38 AMZ</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>IZAS Wandern Sandale</t>
+        </is>
+      </c>
+      <c r="Q279" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="S279" t="inlineStr">
+        <is>
+          <t>37.99</t>
+        </is>
+      </c>
+      <c r="T279" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V279" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W279" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X279" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y279" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="Z279" t="inlineStr"/>
+      <c r="AA279" t="inlineStr"/>
+      <c r="AB279" t="inlineStr"/>
+      <c r="AC279" t="inlineStr"/>
+      <c r="AD279" t="inlineStr">
+        <is>
+          <t>Kandern</t>
+        </is>
+      </c>
+      <c r="AE279" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="AF279" t="inlineStr">
+        <is>
+          <t>79400</t>
+        </is>
+      </c>
+      <c r="AG279" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="AH279" t="inlineStr"/>
+      <c r="AI279" t="inlineStr"/>
+      <c r="AJ279" t="inlineStr"/>
+      <c r="AK279" t="inlineStr"/>
+      <c r="AL279" t="inlineStr"/>
+      <c r="AM279" t="inlineStr"/>
+      <c r="AN279" t="inlineStr"/>
+      <c r="AO279" t="inlineStr"/>
+      <c r="AP279" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ279" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AR279" t="inlineStr">
+        <is>
+          <t>DEPOST</t>
+        </is>
+      </c>
+      <c r="AS279" t="inlineStr">
+        <is>
+          <t>5248289781/9999/AW/65414</t>
+        </is>
+      </c>
+      <c r="AT279" t="inlineStr">
+        <is>
+          <t>2020-08-15T18:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="AU279" t="inlineStr">
+        <is>
+          <t>MAD4</t>
+        </is>
+      </c>
+      <c r="AV279" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="AW279" t="inlineStr">
+        <is>
+          <t>Amazon.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>305-4701439-9946704</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr"/>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>DcX414nwr</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>DvGRCRhtR</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>53685828516491</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr"/>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>2020-08-12T09:11:17+00:00</t>
+        </is>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>2020-08-12T19:39:07+00:00</t>
+        </is>
+      </c>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>2020-08-12T19:39:07+00:00</t>
+        </is>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>2020-08-12T22:39:13+00:00</t>
+        </is>
+      </c>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>1pkw00bhf1xw7j5@marketplace.amazon.de</t>
+        </is>
+      </c>
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="inlineStr"/>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>IWFSD01412BM/CF39 AMZ</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>Izas Outdoor Damen Leeds Sportsandale, Bluemoon Coral Fluor, 39 EU</t>
+        </is>
+      </c>
+      <c r="Q280" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="S280" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="T280" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V280" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W280" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X280" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y280" t="inlineStr">
+        <is>
+          <t>Expedited</t>
+        </is>
+      </c>
+      <c r="Z280" t="inlineStr"/>
+      <c r="AA280" t="inlineStr"/>
+      <c r="AB280" t="inlineStr"/>
+      <c r="AC280" t="inlineStr"/>
+      <c r="AD280" t="inlineStr">
+        <is>
+          <t>Bonn</t>
+        </is>
+      </c>
+      <c r="AE280" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="AF280" t="inlineStr">
+        <is>
+          <t>53225</t>
+        </is>
+      </c>
+      <c r="AG280" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="AH280" t="inlineStr"/>
+      <c r="AI280" t="inlineStr"/>
+      <c r="AJ280" t="inlineStr"/>
+      <c r="AK280" t="inlineStr"/>
+      <c r="AL280" t="inlineStr"/>
+      <c r="AM280" t="inlineStr"/>
+      <c r="AN280" t="inlineStr"/>
+      <c r="AO280" t="inlineStr"/>
+      <c r="AP280" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ280" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AR280" t="inlineStr">
+        <is>
+          <t>DP</t>
+        </is>
+      </c>
+      <c r="AS280" t="inlineStr">
+        <is>
+          <t>JJD000390011842226230</t>
+        </is>
+      </c>
+      <c r="AT280" t="inlineStr">
+        <is>
+          <t>2020-08-14T18:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="AU280" t="inlineStr">
+        <is>
+          <t>MAD4</t>
+        </is>
+      </c>
+      <c r="AV280" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="AW280" t="inlineStr">
+        <is>
+          <t>Amazon.de</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>406-5854767-5663510</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr"/>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>D1ZfVFJ7L</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>DsKGp7h7R</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>65568260329747</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr"/>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>2020-08-11T12:59:06+00:00</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr">
+        <is>
+          <t>2020-08-12T15:49:07+00:00</t>
+        </is>
+      </c>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>2020-08-12T15:49:07+00:00</t>
+        </is>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>2020-08-12T18:49:14+00:00</t>
+        </is>
+      </c>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>qhlt20hfzv5tpy9@marketplace.amazon.es</t>
+        </is>
+      </c>
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="inlineStr"/>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>IWFFO01051TQ37 AMZ1</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>Izas Sandalia Tena</t>
+        </is>
+      </c>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="S281" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="T281" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V281" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W281" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X281" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y281" t="inlineStr">
+        <is>
+          <t>Expedited</t>
+        </is>
+      </c>
+      <c r="Z281" t="inlineStr"/>
+      <c r="AA281" t="inlineStr"/>
+      <c r="AB281" t="inlineStr"/>
+      <c r="AC281" t="inlineStr"/>
+      <c r="AD281" t="inlineStr">
+        <is>
+          <t>Losar de la Vera</t>
+        </is>
+      </c>
+      <c r="AE281" t="inlineStr">
+        <is>
+          <t>C\xc3\xa1ceres</t>
+        </is>
+      </c>
+      <c r="AF281" t="inlineStr">
+        <is>
+          <t>10460</t>
+        </is>
+      </c>
+      <c r="AG281" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="AH281" t="inlineStr"/>
+      <c r="AI281" t="inlineStr"/>
+      <c r="AJ281" t="inlineStr"/>
+      <c r="AK281" t="inlineStr"/>
+      <c r="AL281" t="inlineStr"/>
+      <c r="AM281" t="inlineStr"/>
+      <c r="AN281" t="inlineStr"/>
+      <c r="AO281" t="inlineStr"/>
+      <c r="AP281" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ281" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AR281" t="inlineStr">
+        <is>
+          <t>CORREOS_EXPRESS</t>
+        </is>
+      </c>
+      <c r="AS281" t="inlineStr">
+        <is>
+          <t>63583511283179001104606</t>
+        </is>
+      </c>
+      <c r="AT281" t="inlineStr">
+        <is>
+          <t>2020-08-13T18:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="AU281" t="inlineStr">
+        <is>
+          <t>MAD4</t>
+        </is>
+      </c>
+      <c r="AV281" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="AW281" t="inlineStr">
+        <is>
+          <t>Amazon.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>406-1424982-6050736</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr"/>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>DcxctSRj7</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>D249N4TyR</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>20622875363899</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr"/>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>2020-08-10T16:54:33+00:00</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr">
+        <is>
+          <t>2020-08-12T11:32:56+00:00</t>
+        </is>
+      </c>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>2020-08-12T11:32:56+00:00</t>
+        </is>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>2020-08-12T14:43:12+00:00</t>
+        </is>
+      </c>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>9mfmbjh7kxm5412@marketplace.amazon.es</t>
+        </is>
+      </c>
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="inlineStr"/>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>IWFFO01051BM36 AMZ</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>Izas Tena Sandalia, Mujer (Azul Noche, Numeric_36)</t>
+        </is>
+      </c>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="S282" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="T282" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="V282" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W282" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X282" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y282" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="Z282" t="inlineStr"/>
+      <c r="AA282" t="inlineStr"/>
+      <c r="AB282" t="inlineStr"/>
+      <c r="AC282" t="inlineStr"/>
+      <c r="AD282" t="inlineStr">
+        <is>
+          <t>las Torres de Cotillas</t>
+        </is>
+      </c>
+      <c r="AE282" t="inlineStr">
+        <is>
+          <t>Murcia</t>
+        </is>
+      </c>
+      <c r="AF282" t="inlineStr">
+        <is>
+          <t>30565</t>
+        </is>
+      </c>
+      <c r="AG282" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="AH282" t="inlineStr"/>
+      <c r="AI282" t="inlineStr"/>
+      <c r="AJ282" t="inlineStr"/>
+      <c r="AK282" t="inlineStr"/>
+      <c r="AL282" t="inlineStr"/>
+      <c r="AM282" t="inlineStr"/>
+      <c r="AN282" t="inlineStr"/>
+      <c r="AO282" t="inlineStr"/>
+      <c r="AP282" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ282" t="inlineStr">
+        <is>
+          <t>-1.32</t>
+        </is>
+      </c>
+      <c r="AR282" t="inlineStr">
+        <is>
+          <t>AMZN_ES</t>
+        </is>
+      </c>
+      <c r="AS282" t="inlineStr">
+        <is>
+          <t>EB0016303628</t>
+        </is>
+      </c>
+      <c r="AT282" t="inlineStr">
+        <is>
+          <t>2020-08-14T18:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="AU282" t="inlineStr">
+        <is>
+          <t>BCN1</t>
+        </is>
+      </c>
+      <c r="AV282" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="AW282" t="inlineStr">
+        <is>
+          <t>Amazon.es</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>408-8611267-8426705</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr"/>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>DnysJlp9Q</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>DtN4pshQR</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>21801236082459</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr"/>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>2020-08-11T17:21:14+00:00</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr">
+        <is>
+          <t>2020-08-12T10:51:36+00:00</t>
+        </is>
+      </c>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>2020-08-12T10:51:36+00:00</t>
+        </is>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>2020-08-12T13:51:44+00:00</t>
+        </is>
+      </c>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>3n78dskfv11w4th@marketplace.amazon.fr</t>
+        </is>
+      </c>
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="inlineStr"/>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>IWFFO01049FX39 AMZ1</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>IZAS IWFFO01049FX39 Sandale de Sport Femme, Fuchsia, Taille : 39</t>
+        </is>
+      </c>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
+          <t>EUR</t>
+        </is>
+      </c>
+      <c r="S283" t="inlineStr">
+        <is>
+          <t>34.99</t>
+        </is>
+      </c>
+      <c r="T283" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="V283" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="W283" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="X283" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="Y283" t="inlineStr">
+        <is>
+          <t>Expedited</t>
+        </is>
+      </c>
+      <c r="Z283" t="inlineStr"/>
+      <c r="AA283" t="inlineStr"/>
+      <c r="AB283" t="inlineStr"/>
+      <c r="AC283" t="inlineStr"/>
+      <c r="AD283" t="inlineStr">
+        <is>
+          <t>Frontignan</t>
+        </is>
+      </c>
+      <c r="AE283" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="AF283" t="inlineStr">
+        <is>
+          <t>34110</t>
+        </is>
+      </c>
+      <c r="AG283" t="inlineStr">
+        <is>
+          <t>FR</t>
+        </is>
+      </c>
+      <c r="AH283" t="inlineStr"/>
+      <c r="AI283" t="inlineStr"/>
+      <c r="AJ283" t="inlineStr"/>
+      <c r="AK283" t="inlineStr"/>
+      <c r="AL283" t="inlineStr"/>
+      <c r="AM283" t="inlineStr"/>
+      <c r="AN283" t="inlineStr"/>
+      <c r="AO283" t="inlineStr"/>
+      <c r="AP283" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AQ283" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="AR283" t="inlineStr">
+        <is>
+          <t>LA_POSTE</t>
+        </is>
+      </c>
+      <c r="AS283" t="inlineStr">
+        <is>
+          <t>6G01315067733</t>
+        </is>
+      </c>
+      <c r="AT283" t="inlineStr">
+        <is>
+          <t>2020-08-14T18:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="AU283" t="inlineStr">
+        <is>
+          <t>MAD4</t>
+        </is>
+      </c>
+      <c r="AV283" t="inlineStr">
+        <is>
+          <t>AFN</t>
+        </is>
+      </c>
+      <c r="AW283" t="inlineStr">
+        <is>
+          <t>Amazon.fr</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
